--- a/Documentation/Journal de bord.xlsx
+++ b/Documentation/Journal de bord.xlsx
@@ -1,25 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6832561-9FEC-4059-BDEF-6855632293CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Auteur</t>
+  </si>
+  <si>
+    <t>Débout du journal</t>
+  </si>
+  <si>
+    <t>Projet</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>I-CT 431</t>
+  </si>
+  <si>
+    <t>Monteiro Rui</t>
+  </si>
+  <si>
+    <t>Bataille Navale</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +67,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -45,12 +89,182 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +544,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="O1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="15" max="15" width="16.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="15:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="11">
+        <f ca="1">TODAY()</f>
+        <v>44267</v>
+      </c>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="15:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/Journal de bord.xlsx
+++ b/Documentation/Journal de bord.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6832561-9FEC-4059-BDEF-6855632293CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B610EC-EB84-4322-B43D-8A63567DB7B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Module</t>
   </si>
@@ -53,12 +53,33 @@
   <si>
     <t>Bataille Navale</t>
   </si>
+  <si>
+    <t>Journal de bord</t>
+  </si>
+  <si>
+    <t>Evenement</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>Aide pour afficher les caractéres "%c"</t>
+  </si>
+  <si>
+    <t>M.Viret</t>
+  </si>
+  <si>
+    <t>Aide pour réparer mon fichier "workspace.cml"</t>
+  </si>
+  <si>
+    <t>Aide pour le menu d'identification, le while pour répeter le menu à chaque foi qu'une valeur invalide était limité a 4 et la variable de identification était "5"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,8 +87,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,8 +116,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -232,27 +274,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -262,8 +386,74 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,72 +735,1164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="O1:Q6"/>
+  <dimension ref="B1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.7109375" style="32"/>
+    <col min="4" max="5" width="8.7109375" style="16"/>
+    <col min="6" max="7" width="8.7109375" style="32"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="15:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O2" s="2" t="s">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O3" s="3" t="s">
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="I3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O4" s="3" t="s">
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="I4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="J4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="7"/>
-    </row>
-    <row r="5" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O5" s="3" t="s">
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="11">
+      <c r="J5" s="8">
         <f ca="1">TODAY()</f>
         <v>44267</v>
       </c>
-      <c r="Q5" s="8"/>
-    </row>
-    <row r="6" spans="15:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O6" s="1" t="s">
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="I6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="J6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="2:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="27">
+        <v>44265</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" spans="2:11" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="27">
+        <v>44266</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="2:11" ht="139.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="27">
+        <v>44267</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="28"/>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="28"/>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="28"/>
+    </row>
+    <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="28"/>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28"/>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="28"/>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="28"/>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="28"/>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="27"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="28"/>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="27"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="28"/>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="27"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="28"/>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="27"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
+    </row>
+    <row r="43" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="27"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
+    </row>
+    <row r="44" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="27"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="28"/>
+    </row>
+    <row r="45" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="27"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="28"/>
+    </row>
+    <row r="46" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="27"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="28"/>
+    </row>
+    <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="27"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="28"/>
+    </row>
+    <row r="48" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="27"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="28"/>
+    </row>
+    <row r="49" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="27"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="28"/>
+    </row>
+    <row r="50" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="27"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="28"/>
+    </row>
+    <row r="51" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="27"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="28"/>
+    </row>
+    <row r="52" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="27"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="28"/>
+    </row>
+    <row r="53" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="27"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="28"/>
+    </row>
+    <row r="54" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="27"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="28"/>
+    </row>
+    <row r="55" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="27"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="28"/>
+    </row>
+    <row r="56" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="27"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="28"/>
+    </row>
+    <row r="57" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="27"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="28"/>
+    </row>
+    <row r="58" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="27"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="28"/>
+    </row>
+    <row r="59" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="27"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="28"/>
+    </row>
+    <row r="60" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="27"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="28"/>
+    </row>
+    <row r="61" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="27"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="28"/>
+    </row>
+    <row r="62" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="27"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="28"/>
+    </row>
+    <row r="63" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="27"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="28"/>
+    </row>
+    <row r="64" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="27"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="28"/>
+    </row>
+    <row r="65" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="27"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="28"/>
+    </row>
+    <row r="66" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="27"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="28"/>
+    </row>
+    <row r="67" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="27"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="28"/>
+    </row>
+    <row r="68" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="27"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="28"/>
+    </row>
+    <row r="69" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="27"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="28"/>
+    </row>
+    <row r="70" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="27"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="28"/>
+    </row>
+    <row r="71" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="27"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="28"/>
+    </row>
+    <row r="72" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="27"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="28"/>
+    </row>
+    <row r="73" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="27"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="28"/>
+    </row>
+    <row r="74" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="27"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="28"/>
+    </row>
+    <row r="75" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="27"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="28"/>
+    </row>
+    <row r="76" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="27"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="28"/>
+    </row>
+    <row r="77" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="27"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="28"/>
+    </row>
+    <row r="78" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="27"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="28"/>
+    </row>
+    <row r="79" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="27"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="28"/>
+    </row>
+    <row r="80" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="27"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="28"/>
+    </row>
+    <row r="81" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="27"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="28"/>
+    </row>
+    <row r="82" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="27"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="28"/>
+    </row>
+    <row r="83" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="27"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="28"/>
+    </row>
+    <row r="84" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="27"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="28"/>
+    </row>
+    <row r="85" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="27"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="28"/>
+    </row>
+    <row r="86" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="27"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="28"/>
+    </row>
+    <row r="87" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="27"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="28"/>
+    </row>
+    <row r="88" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="27"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="28"/>
+    </row>
+    <row r="89" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="27"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="28"/>
+    </row>
+    <row r="90" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="27"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="28"/>
+    </row>
+    <row r="91" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="27"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="28"/>
+    </row>
+    <row r="92" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="27"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="28"/>
+    </row>
+    <row r="93" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="27"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="28"/>
+    </row>
+    <row r="94" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="27"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="28"/>
+    </row>
+    <row r="95" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="27"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="28"/>
+    </row>
+    <row r="96" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="27"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="28"/>
+    </row>
+    <row r="97" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="27"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="28"/>
+    </row>
+    <row r="98" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="27"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="28"/>
+    </row>
+    <row r="99" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="29"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="31"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="33"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
+  <mergeCells count="285">
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B2:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>